--- a/demo-admin/src/main/java/com/jeremy/admin/controller/test.xlsx
+++ b/demo-admin/src/main/java/com/jeremy/admin/controller/test.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16180" activeTab="2"/>
+    <workbookView windowWidth="24045" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -949,46 +962,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12700" y="213360"/>
-          <a:ext cx="2704465" cy="2842895"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>31115</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="国旗背景"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12700" y="12700"/>
-          <a:ext cx="9990455" cy="10473055"/>
+          <a:off x="12700" y="171450"/>
+          <a:ext cx="3080385" cy="2298065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1025,8 +1000,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12813030" y="1493520"/>
-          <a:ext cx="2841625" cy="3041650"/>
+          <a:off x="14786610" y="1200150"/>
+          <a:ext cx="3217545" cy="2454910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>427355</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>617855</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="demo2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2538095" y="2705100"/>
+          <a:ext cx="10040620" cy="5657850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,7 +1307,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1327,7 +1340,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1340,10 +1353,10 @@
   <dimension ref="B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
